--- a/src/test/resources/simple/TestExcelFile.xlsx
+++ b/src/test/resources/simple/TestExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\execl2javaBean\src\test\resources\simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D3299-A421-405B-8F3E-0BCC6BEB6C0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E9D50E-5D9E-4CB2-ACF1-4475A32FA4E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="1868" windowWidth="11483" windowHeight="7290" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="First" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -697,7 +697,7 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>12345678901</v>
       </c>
       <c r="G5" t="s">
@@ -720,7 +720,7 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>12345678902</v>
       </c>
       <c r="G6" t="s">
@@ -743,7 +743,7 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>12345678903</v>
       </c>
       <c r="G7" t="s">
@@ -766,7 +766,7 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>12345678904</v>
       </c>
       <c r="G8" t="s">

--- a/src/test/resources/simple/TestExcelFile.xlsx
+++ b/src/test/resources/simple/TestExcelFile.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\execl2javaBean\src\test\resources\simple\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\excel2javaBean\src\test\resources\simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E9D50E-5D9E-4CB2-ACF1-4475A32FA4E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FF73F8-3437-4013-9BEE-43CF3743C6CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="First" sheetId="1" r:id="rId1"/>
     <sheet name="Second" sheetId="2" r:id="rId2"/>
     <sheet name="Third" sheetId="3" r:id="rId3"/>
+    <sheet name="Accumulator" sheetId="4" r:id="rId4"/>
+    <sheet name="Accumulator2" sheetId="5" r:id="rId5"/>
+    <sheet name="Accumulator3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -89,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,58 +126,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪千凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逢向露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刁颖初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多馨兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市东城区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省绍兴市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃省兰州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市和平区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2019届201班成员表</t>
-  </si>
-  <si>
-    <t>班主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倪千凡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逢向露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刁颖初</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多馨兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市东城区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江省绍兴市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘肃省兰州市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津市和平区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南国有佳人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香雾冷风残</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云山乱,晓山青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷花羞玉颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/PiggyGuoJY/FuHM</t>
+  </si>
+  <si>
+    <t>https://github.com/PiggyGuoJY/NiQF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/PiggyGuoJY/FengXL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/PiggyGuoJY/DiaoYC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家山何处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闻君有两意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白首卧松云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香非在蕊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +355,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -262,12 +394,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +415,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -292,9 +433,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -608,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C8CCC7-B573-4C0F-97D0-90E1443729FA}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -622,41 +770,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>43466</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -686,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>1.1010119900307E+17</v>
@@ -695,21 +843,21 @@
         <v>32939</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>12345678901</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>3.3060420040601498E+17</v>
@@ -718,21 +866,21 @@
         <v>38139</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>12345678902</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>6.2010219940512704E+17</v>
@@ -741,21 +889,21 @@
         <v>34466</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>12345678903</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>1.20101201601014E+17</v>
@@ -764,13 +912,13 @@
         <v>42370</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>12345678904</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -788,14 +936,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377060A-9E9B-4C7A-A488-34C0D26EC5DF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43466</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.1010119900307E+17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.3060420040601498E+17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.2010219940512704E+17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.20101201601014E+17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>32939</v>
+      </c>
+      <c r="C7" s="2">
+        <v>38139</v>
+      </c>
+      <c r="D7" s="2">
+        <v>34466</v>
+      </c>
+      <c r="E7" s="2">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12345678901</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12345678902</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12345678903</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12345678904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{B10A6681-A582-44DD-8988-33F5B326F502}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{20A1BF0D-9F0F-44E8-B91E-09DA87F28FFF}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{918A9BD9-3330-4869-8BFB-E2DD01FA8153}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{B3099C1C-B884-4ABE-8856-ACE388041EC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -812,4 +1214,43 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA4B62-E84A-47FF-8A9A-20F8BE45E8B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4DC576-F826-48E6-8C59-05641BF4AB59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AD97FF-A559-4B07-BF93-BECA940236A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/simple/TestExcelFile.xlsx
+++ b/src/test/resources/simple/TestExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\excel2javaBean\src\test\resources\simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FF73F8-3437-4013-9BEE-43CF3743C6CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9DD81-CA51-4A9B-B648-456664574A78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="2" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="First" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,16 +299,845 @@
   <si>
     <t>香非在蕊</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各地区户数、人口数和性别比</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：户、人</t>
+  </si>
+  <si>
+    <t>地    区</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  户       数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>人          口          数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均家庭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">家庭户 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>合          计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>家     庭     户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>集     体     户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>户规模</t>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别比</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(女=100)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（人/户）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>北</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>京</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>津</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>河</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>古</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>辽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>吉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>黑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>江</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>浙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徽</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>福</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>江</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>河</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>湖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>湖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>川</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>贵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>州</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>云</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>藏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>陕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>甘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>宁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>疆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第六次人口普查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据来源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> http://www.stats.gov.cn/</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +1193,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +1273,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -393,6 +1294,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -402,7 +1482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,6 +1501,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -436,8 +1519,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,41 +1946,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>43466</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -938,7 +2114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377060A-9E9B-4C7A-A488-34C0D26EC5DF}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -948,29 +2124,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1137,16 +2313,16 @@
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1203,16 +2379,1934 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80D2D90-71DB-4C8F-A95A-3CA0B5C00024}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="17" width="11.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="20"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="35">
+        <v>417722698</v>
+      </c>
+      <c r="C8" s="35">
+        <v>401934196</v>
+      </c>
+      <c r="D8" s="35">
+        <v>15788502</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1332810869</v>
+      </c>
+      <c r="F8" s="35">
+        <v>682329104</v>
+      </c>
+      <c r="G8" s="35">
+        <v>650481765</v>
+      </c>
+      <c r="H8" s="36">
+        <v>104.9</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1239981250</v>
+      </c>
+      <c r="J8" s="35">
+        <v>627410399</v>
+      </c>
+      <c r="K8" s="35">
+        <v>612570851</v>
+      </c>
+      <c r="L8" s="36">
+        <v>102.42</v>
+      </c>
+      <c r="M8" s="35">
+        <v>92829619</v>
+      </c>
+      <c r="N8" s="35">
+        <v>54918705</v>
+      </c>
+      <c r="O8" s="35">
+        <v>37910914</v>
+      </c>
+      <c r="P8" s="36">
+        <v>144.86000000000001</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="38">
+        <v>7355291</v>
+      </c>
+      <c r="C9" s="38">
+        <v>6680552</v>
+      </c>
+      <c r="D9" s="38">
+        <v>674739</v>
+      </c>
+      <c r="E9" s="38">
+        <v>19612368</v>
+      </c>
+      <c r="F9" s="38">
+        <v>10126430</v>
+      </c>
+      <c r="G9" s="38">
+        <v>9485938</v>
+      </c>
+      <c r="H9" s="39">
+        <v>106.75</v>
+      </c>
+      <c r="I9" s="38">
+        <v>16389723</v>
+      </c>
+      <c r="J9" s="38">
+        <v>8173161</v>
+      </c>
+      <c r="K9" s="38">
+        <v>8216562</v>
+      </c>
+      <c r="L9" s="39">
+        <v>99.47</v>
+      </c>
+      <c r="M9" s="38">
+        <v>3222645</v>
+      </c>
+      <c r="N9" s="38">
+        <v>1953269</v>
+      </c>
+      <c r="O9" s="38">
+        <v>1269376</v>
+      </c>
+      <c r="P9" s="39">
+        <v>153.88</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="38">
+        <v>3963604</v>
+      </c>
+      <c r="C10" s="38">
+        <v>3661992</v>
+      </c>
+      <c r="D10" s="38">
+        <v>301612</v>
+      </c>
+      <c r="E10" s="38">
+        <v>12938693</v>
+      </c>
+      <c r="F10" s="38">
+        <v>6907091</v>
+      </c>
+      <c r="G10" s="38">
+        <v>6031602</v>
+      </c>
+      <c r="H10" s="39">
+        <v>114.52</v>
+      </c>
+      <c r="I10" s="38">
+        <v>10262186</v>
+      </c>
+      <c r="J10" s="38">
+        <v>5129604</v>
+      </c>
+      <c r="K10" s="38">
+        <v>5132582</v>
+      </c>
+      <c r="L10" s="39">
+        <v>99.94</v>
+      </c>
+      <c r="M10" s="38">
+        <v>2676507</v>
+      </c>
+      <c r="N10" s="38">
+        <v>1777487</v>
+      </c>
+      <c r="O10" s="38">
+        <v>899020</v>
+      </c>
+      <c r="P10" s="39">
+        <v>197.71</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="38">
+        <v>20813492</v>
+      </c>
+      <c r="C11" s="38">
+        <v>20395116</v>
+      </c>
+      <c r="D11" s="38">
+        <v>418376</v>
+      </c>
+      <c r="E11" s="38">
+        <v>71854210</v>
+      </c>
+      <c r="F11" s="38">
+        <v>36430286</v>
+      </c>
+      <c r="G11" s="38">
+        <v>35423924</v>
+      </c>
+      <c r="H11" s="39">
+        <v>102.84</v>
+      </c>
+      <c r="I11" s="38">
+        <v>68538709</v>
+      </c>
+      <c r="J11" s="38">
+        <v>34552649</v>
+      </c>
+      <c r="K11" s="38">
+        <v>33986060</v>
+      </c>
+      <c r="L11" s="39">
+        <v>101.67</v>
+      </c>
+      <c r="M11" s="38">
+        <v>3315501</v>
+      </c>
+      <c r="N11" s="38">
+        <v>1877637</v>
+      </c>
+      <c r="O11" s="38">
+        <v>1437864</v>
+      </c>
+      <c r="P11" s="39">
+        <v>130.59</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="38">
+        <v>10654162</v>
+      </c>
+      <c r="C12" s="38">
+        <v>10330207</v>
+      </c>
+      <c r="D12" s="38">
+        <v>323955</v>
+      </c>
+      <c r="E12" s="38">
+        <v>35712101</v>
+      </c>
+      <c r="F12" s="38">
+        <v>18338760</v>
+      </c>
+      <c r="G12" s="38">
+        <v>17373341</v>
+      </c>
+      <c r="H12" s="39">
+        <v>105.56</v>
+      </c>
+      <c r="I12" s="38">
+        <v>33484131</v>
+      </c>
+      <c r="J12" s="38">
+        <v>16988087</v>
+      </c>
+      <c r="K12" s="38">
+        <v>16496044</v>
+      </c>
+      <c r="L12" s="39">
+        <v>102.98</v>
+      </c>
+      <c r="M12" s="38">
+        <v>2227970</v>
+      </c>
+      <c r="N12" s="38">
+        <v>1350673</v>
+      </c>
+      <c r="O12" s="38">
+        <v>877297</v>
+      </c>
+      <c r="P12" s="39">
+        <v>153.96</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="38">
+        <v>8470472</v>
+      </c>
+      <c r="C13" s="38">
+        <v>8205498</v>
+      </c>
+      <c r="D13" s="38">
+        <v>264974</v>
+      </c>
+      <c r="E13" s="38">
+        <v>24706291</v>
+      </c>
+      <c r="F13" s="38">
+        <v>12838243</v>
+      </c>
+      <c r="G13" s="38">
+        <v>11868048</v>
+      </c>
+      <c r="H13" s="39">
+        <v>108.17</v>
+      </c>
+      <c r="I13" s="38">
+        <v>23071690</v>
+      </c>
+      <c r="J13" s="38">
+        <v>11725291</v>
+      </c>
+      <c r="K13" s="38">
+        <v>11346399</v>
+      </c>
+      <c r="L13" s="39">
+        <v>103.34</v>
+      </c>
+      <c r="M13" s="38">
+        <v>1634601</v>
+      </c>
+      <c r="N13" s="38">
+        <v>1112952</v>
+      </c>
+      <c r="O13" s="38">
+        <v>521649</v>
+      </c>
+      <c r="P13" s="39">
+        <v>213.35</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="38">
+        <v>15334912</v>
+      </c>
+      <c r="C14" s="38">
+        <v>14994046</v>
+      </c>
+      <c r="D14" s="38">
+        <v>340866</v>
+      </c>
+      <c r="E14" s="38">
+        <v>43746323</v>
+      </c>
+      <c r="F14" s="38">
+        <v>22147745</v>
+      </c>
+      <c r="G14" s="38">
+        <v>21598578</v>
+      </c>
+      <c r="H14" s="39">
+        <v>102.54</v>
+      </c>
+      <c r="I14" s="38">
+        <v>41755874</v>
+      </c>
+      <c r="J14" s="38">
+        <v>20956756</v>
+      </c>
+      <c r="K14" s="38">
+        <v>20799118</v>
+      </c>
+      <c r="L14" s="39">
+        <v>100.76</v>
+      </c>
+      <c r="M14" s="38">
+        <v>1990449</v>
+      </c>
+      <c r="N14" s="38">
+        <v>1190989</v>
+      </c>
+      <c r="O14" s="38">
+        <v>799460</v>
+      </c>
+      <c r="P14" s="39">
+        <v>148.97</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="38">
+        <v>9162183</v>
+      </c>
+      <c r="C15" s="38">
+        <v>8998492</v>
+      </c>
+      <c r="D15" s="38">
+        <v>163691</v>
+      </c>
+      <c r="E15" s="38">
+        <v>27452815</v>
+      </c>
+      <c r="F15" s="38">
+        <v>13907218</v>
+      </c>
+      <c r="G15" s="38">
+        <v>13545597</v>
+      </c>
+      <c r="H15" s="39">
+        <v>102.67</v>
+      </c>
+      <c r="I15" s="38">
+        <v>26457769</v>
+      </c>
+      <c r="J15" s="38">
+        <v>13358390</v>
+      </c>
+      <c r="K15" s="38">
+        <v>13099379</v>
+      </c>
+      <c r="L15" s="39">
+        <v>101.98</v>
+      </c>
+      <c r="M15" s="38">
+        <v>995046</v>
+      </c>
+      <c r="N15" s="38">
+        <v>548828</v>
+      </c>
+      <c r="O15" s="38">
+        <v>446218</v>
+      </c>
+      <c r="P15" s="39">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="38">
+        <v>13192935</v>
+      </c>
+      <c r="C16" s="38">
+        <v>13000088</v>
+      </c>
+      <c r="D16" s="38">
+        <v>192847</v>
+      </c>
+      <c r="E16" s="38">
+        <v>38313991</v>
+      </c>
+      <c r="F16" s="38">
+        <v>19426106</v>
+      </c>
+      <c r="G16" s="38">
+        <v>18887885</v>
+      </c>
+      <c r="H16" s="39">
+        <v>102.85</v>
+      </c>
+      <c r="I16" s="38">
+        <v>36884039</v>
+      </c>
+      <c r="J16" s="38">
+        <v>18603181</v>
+      </c>
+      <c r="K16" s="38">
+        <v>18280858</v>
+      </c>
+      <c r="L16" s="39">
+        <v>101.76</v>
+      </c>
+      <c r="M16" s="38">
+        <v>1429952</v>
+      </c>
+      <c r="N16" s="38">
+        <v>822925</v>
+      </c>
+      <c r="O16" s="38">
+        <v>607027</v>
+      </c>
+      <c r="P16" s="39">
+        <v>135.57</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="38">
+        <v>8893483</v>
+      </c>
+      <c r="C17" s="38">
+        <v>8253257</v>
+      </c>
+      <c r="D17" s="38">
+        <v>640226</v>
+      </c>
+      <c r="E17" s="38">
+        <v>23019196</v>
+      </c>
+      <c r="F17" s="38">
+        <v>11854916</v>
+      </c>
+      <c r="G17" s="38">
+        <v>11164280</v>
+      </c>
+      <c r="H17" s="39">
+        <v>106.19</v>
+      </c>
+      <c r="I17" s="38">
+        <v>20593430</v>
+      </c>
+      <c r="J17" s="38">
+        <v>10318168</v>
+      </c>
+      <c r="K17" s="38">
+        <v>10275262</v>
+      </c>
+      <c r="L17" s="39">
+        <v>100.42</v>
+      </c>
+      <c r="M17" s="38">
+        <v>2425766</v>
+      </c>
+      <c r="N17" s="38">
+        <v>1536748</v>
+      </c>
+      <c r="O17" s="38">
+        <v>889018</v>
+      </c>
+      <c r="P17" s="39">
+        <v>172.86</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="38">
+        <v>25635291</v>
+      </c>
+      <c r="C18" s="38">
+        <v>24381782</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1253509</v>
+      </c>
+      <c r="E18" s="38">
+        <v>78660941</v>
+      </c>
+      <c r="F18" s="38">
+        <v>39626707</v>
+      </c>
+      <c r="G18" s="38">
+        <v>39034234</v>
+      </c>
+      <c r="H18" s="39">
+        <v>101.52</v>
+      </c>
+      <c r="I18" s="38">
+        <v>71685839</v>
+      </c>
+      <c r="J18" s="38">
+        <v>35542124</v>
+      </c>
+      <c r="K18" s="38">
+        <v>36143715</v>
+      </c>
+      <c r="L18" s="39">
+        <v>98.34</v>
+      </c>
+      <c r="M18" s="38">
+        <v>6975102</v>
+      </c>
+      <c r="N18" s="38">
+        <v>4084583</v>
+      </c>
+      <c r="O18" s="38">
+        <v>2890519</v>
+      </c>
+      <c r="P18" s="39">
+        <v>141.31</v>
+      </c>
+      <c r="Q18" s="39">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="38">
+        <v>20060115</v>
+      </c>
+      <c r="C19" s="38">
+        <v>18854021</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1206094</v>
+      </c>
+      <c r="E19" s="38">
+        <v>54426891</v>
+      </c>
+      <c r="F19" s="38">
+        <v>27965641</v>
+      </c>
+      <c r="G19" s="38">
+        <v>26461250</v>
+      </c>
+      <c r="H19" s="39">
+        <v>105.69</v>
+      </c>
+      <c r="I19" s="38">
+        <v>49425543</v>
+      </c>
+      <c r="J19" s="38">
+        <v>25037320</v>
+      </c>
+      <c r="K19" s="38">
+        <v>24388223</v>
+      </c>
+      <c r="L19" s="39">
+        <v>102.66</v>
+      </c>
+      <c r="M19" s="38">
+        <v>5001348</v>
+      </c>
+      <c r="N19" s="38">
+        <v>2928321</v>
+      </c>
+      <c r="O19" s="38">
+        <v>2073027</v>
+      </c>
+      <c r="P19" s="39">
+        <v>141.26</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="38">
+        <v>19322432</v>
+      </c>
+      <c r="C20" s="38">
+        <v>18861956</v>
+      </c>
+      <c r="D20" s="38">
+        <v>460476</v>
+      </c>
+      <c r="E20" s="38">
+        <v>59500468</v>
+      </c>
+      <c r="F20" s="38">
+        <v>30245513</v>
+      </c>
+      <c r="G20" s="38">
+        <v>29254955</v>
+      </c>
+      <c r="H20" s="39">
+        <v>103.39</v>
+      </c>
+      <c r="I20" s="38">
+        <v>56493891</v>
+      </c>
+      <c r="J20" s="38">
+        <v>28462853</v>
+      </c>
+      <c r="K20" s="38">
+        <v>28031038</v>
+      </c>
+      <c r="L20" s="39">
+        <v>101.54</v>
+      </c>
+      <c r="M20" s="38">
+        <v>3006577</v>
+      </c>
+      <c r="N20" s="38">
+        <v>1782660</v>
+      </c>
+      <c r="O20" s="38">
+        <v>1223917</v>
+      </c>
+      <c r="P20" s="39">
+        <v>145.65</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="38">
+        <v>11971873</v>
+      </c>
+      <c r="C21" s="38">
+        <v>11206317</v>
+      </c>
+      <c r="D21" s="38">
+        <v>765556</v>
+      </c>
+      <c r="E21" s="38">
+        <v>36894217</v>
+      </c>
+      <c r="F21" s="38">
+        <v>18981054</v>
+      </c>
+      <c r="G21" s="38">
+        <v>17913163</v>
+      </c>
+      <c r="H21" s="39">
+        <v>105.96</v>
+      </c>
+      <c r="I21" s="38">
+        <v>33397663</v>
+      </c>
+      <c r="J21" s="38">
+        <v>16901083</v>
+      </c>
+      <c r="K21" s="38">
+        <v>16496580</v>
+      </c>
+      <c r="L21" s="39">
+        <v>102.45</v>
+      </c>
+      <c r="M21" s="38">
+        <v>3496554</v>
+      </c>
+      <c r="N21" s="38">
+        <v>2079971</v>
+      </c>
+      <c r="O21" s="38">
+        <v>1416583</v>
+      </c>
+      <c r="P21" s="39">
+        <v>146.83000000000001</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="38">
+        <v>11847841</v>
+      </c>
+      <c r="C22" s="38">
+        <v>11542527</v>
+      </c>
+      <c r="D22" s="38">
+        <v>305314</v>
+      </c>
+      <c r="E22" s="38">
+        <v>44567797</v>
+      </c>
+      <c r="F22" s="38">
+        <v>23003521</v>
+      </c>
+      <c r="G22" s="38">
+        <v>21564276</v>
+      </c>
+      <c r="H22" s="39">
+        <v>106.67</v>
+      </c>
+      <c r="I22" s="38">
+        <v>42181417</v>
+      </c>
+      <c r="J22" s="38">
+        <v>21600070</v>
+      </c>
+      <c r="K22" s="38">
+        <v>20581347</v>
+      </c>
+      <c r="L22" s="39">
+        <v>104.95</v>
+      </c>
+      <c r="M22" s="38">
+        <v>2386380</v>
+      </c>
+      <c r="N22" s="38">
+        <v>1403451</v>
+      </c>
+      <c r="O22" s="38">
+        <v>982929</v>
+      </c>
+      <c r="P22" s="39">
+        <v>142.78</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="38">
+        <v>30794664</v>
+      </c>
+      <c r="C23" s="38">
+        <v>30105454</v>
+      </c>
+      <c r="D23" s="38">
+        <v>689210</v>
+      </c>
+      <c r="E23" s="38">
+        <v>95792719</v>
+      </c>
+      <c r="F23" s="38">
+        <v>48446944</v>
+      </c>
+      <c r="G23" s="38">
+        <v>47345775</v>
+      </c>
+      <c r="H23" s="39">
+        <v>102.33</v>
+      </c>
+      <c r="I23" s="38">
+        <v>89855501</v>
+      </c>
+      <c r="J23" s="38">
+        <v>45023357</v>
+      </c>
+      <c r="K23" s="38">
+        <v>44832144</v>
+      </c>
+      <c r="L23" s="39">
+        <v>100.43</v>
+      </c>
+      <c r="M23" s="38">
+        <v>5937218</v>
+      </c>
+      <c r="N23" s="38">
+        <v>3423587</v>
+      </c>
+      <c r="O23" s="38">
+        <v>2513631</v>
+      </c>
+      <c r="P23" s="39">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="Q23" s="39">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="38">
+        <v>26404973</v>
+      </c>
+      <c r="C24" s="38">
+        <v>25928729</v>
+      </c>
+      <c r="D24" s="38">
+        <v>476244</v>
+      </c>
+      <c r="E24" s="38">
+        <v>94029939</v>
+      </c>
+      <c r="F24" s="38">
+        <v>47493063</v>
+      </c>
+      <c r="G24" s="38">
+        <v>46536876</v>
+      </c>
+      <c r="H24" s="39">
+        <v>102.05</v>
+      </c>
+      <c r="I24" s="38">
+        <v>90028072</v>
+      </c>
+      <c r="J24" s="38">
+        <v>45262137</v>
+      </c>
+      <c r="K24" s="38">
+        <v>44765935</v>
+      </c>
+      <c r="L24" s="39">
+        <v>101.11</v>
+      </c>
+      <c r="M24" s="38">
+        <v>4001867</v>
+      </c>
+      <c r="N24" s="38">
+        <v>2230926</v>
+      </c>
+      <c r="O24" s="38">
+        <v>1770941</v>
+      </c>
+      <c r="P24" s="39">
+        <v>125.97</v>
+      </c>
+      <c r="Q24" s="39">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="38">
+        <v>17253385</v>
+      </c>
+      <c r="C25" s="38">
+        <v>16695121</v>
+      </c>
+      <c r="D25" s="38">
+        <v>558264</v>
+      </c>
+      <c r="E25" s="38">
+        <v>57237727</v>
+      </c>
+      <c r="F25" s="38">
+        <v>29391247</v>
+      </c>
+      <c r="G25" s="38">
+        <v>27846480</v>
+      </c>
+      <c r="H25" s="39">
+        <v>105.55</v>
+      </c>
+      <c r="I25" s="38">
+        <v>52745625</v>
+      </c>
+      <c r="J25" s="38">
+        <v>26826301</v>
+      </c>
+      <c r="K25" s="38">
+        <v>25919324</v>
+      </c>
+      <c r="L25" s="39">
+        <v>103.5</v>
+      </c>
+      <c r="M25" s="38">
+        <v>4492102</v>
+      </c>
+      <c r="N25" s="38">
+        <v>2564946</v>
+      </c>
+      <c r="O25" s="38">
+        <v>1927156</v>
+      </c>
+      <c r="P25" s="39">
+        <v>133.09</v>
+      </c>
+      <c r="Q25" s="39">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="38">
+        <v>19029894</v>
+      </c>
+      <c r="C26" s="38">
+        <v>18625710</v>
+      </c>
+      <c r="D26" s="38">
+        <v>404184</v>
+      </c>
+      <c r="E26" s="38">
+        <v>65700762</v>
+      </c>
+      <c r="F26" s="38">
+        <v>33776459</v>
+      </c>
+      <c r="G26" s="38">
+        <v>31924303</v>
+      </c>
+      <c r="H26" s="39">
+        <v>105.8</v>
+      </c>
+      <c r="I26" s="38">
+        <v>61911446</v>
+      </c>
+      <c r="J26" s="38">
+        <v>31611459</v>
+      </c>
+      <c r="K26" s="38">
+        <v>30299987</v>
+      </c>
+      <c r="L26" s="39">
+        <v>104.33</v>
+      </c>
+      <c r="M26" s="38">
+        <v>3789316</v>
+      </c>
+      <c r="N26" s="38">
+        <v>2165000</v>
+      </c>
+      <c r="O26" s="38">
+        <v>1624316</v>
+      </c>
+      <c r="P26" s="39">
+        <v>133.29</v>
+      </c>
+      <c r="Q26" s="39">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="38">
+        <v>32222752</v>
+      </c>
+      <c r="C27" s="38">
+        <v>28630609</v>
+      </c>
+      <c r="D27" s="38">
+        <v>3592143</v>
+      </c>
+      <c r="E27" s="38">
+        <v>104320459</v>
+      </c>
+      <c r="F27" s="38">
+        <v>54400538</v>
+      </c>
+      <c r="G27" s="38">
+        <v>49919921</v>
+      </c>
+      <c r="H27" s="39">
+        <v>108.98</v>
+      </c>
+      <c r="I27" s="38">
+        <v>88979305</v>
+      </c>
+      <c r="J27" s="38">
+        <v>45465958</v>
+      </c>
+      <c r="K27" s="38">
+        <v>43513347</v>
+      </c>
+      <c r="L27" s="39">
+        <v>104.49</v>
+      </c>
+      <c r="M27" s="38">
+        <v>15341154</v>
+      </c>
+      <c r="N27" s="38">
+        <v>8934580</v>
+      </c>
+      <c r="O27" s="38">
+        <v>6406574</v>
+      </c>
+      <c r="P27" s="39">
+        <v>139.46</v>
+      </c>
+      <c r="Q27" s="39">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="38">
+        <v>13467663</v>
+      </c>
+      <c r="C28" s="38">
+        <v>13151404</v>
+      </c>
+      <c r="D28" s="38">
+        <v>316259</v>
+      </c>
+      <c r="E28" s="38">
+        <v>46023761</v>
+      </c>
+      <c r="F28" s="38">
+        <v>23924704</v>
+      </c>
+      <c r="G28" s="38">
+        <v>22099057</v>
+      </c>
+      <c r="H28" s="39">
+        <v>108.26</v>
+      </c>
+      <c r="I28" s="38">
+        <v>43970320</v>
+      </c>
+      <c r="J28" s="38">
+        <v>22733969</v>
+      </c>
+      <c r="K28" s="38">
+        <v>21236351</v>
+      </c>
+      <c r="L28" s="39">
+        <v>107.05</v>
+      </c>
+      <c r="M28" s="38">
+        <v>2053441</v>
+      </c>
+      <c r="N28" s="38">
+        <v>1190735</v>
+      </c>
+      <c r="O28" s="38">
+        <v>862706</v>
+      </c>
+      <c r="P28" s="39">
+        <v>138.02000000000001</v>
+      </c>
+      <c r="Q28" s="39">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="38">
+        <v>2451819</v>
+      </c>
+      <c r="C29" s="38">
+        <v>2331149</v>
+      </c>
+      <c r="D29" s="38">
+        <v>120670</v>
+      </c>
+      <c r="E29" s="38">
+        <v>8671485</v>
+      </c>
+      <c r="F29" s="38">
+        <v>4592283</v>
+      </c>
+      <c r="G29" s="38">
+        <v>4079202</v>
+      </c>
+      <c r="H29" s="39">
+        <v>112.58</v>
+      </c>
+      <c r="I29" s="38">
+        <v>8060519</v>
+      </c>
+      <c r="J29" s="38">
+        <v>4231490</v>
+      </c>
+      <c r="K29" s="38">
+        <v>3829029</v>
+      </c>
+      <c r="L29" s="39">
+        <v>110.51</v>
+      </c>
+      <c r="M29" s="38">
+        <v>610966</v>
+      </c>
+      <c r="N29" s="38">
+        <v>360793</v>
+      </c>
+      <c r="O29" s="38">
+        <v>250173</v>
+      </c>
+      <c r="P29" s="39">
+        <v>144.22</v>
+      </c>
+      <c r="Q29" s="39">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="38">
+        <v>10272559</v>
+      </c>
+      <c r="C30" s="38">
+        <v>10000965</v>
+      </c>
+      <c r="D30" s="38">
+        <v>271594</v>
+      </c>
+      <c r="E30" s="38">
+        <v>28846170</v>
+      </c>
+      <c r="F30" s="38">
+        <v>14608870</v>
+      </c>
+      <c r="G30" s="38">
+        <v>14237300</v>
+      </c>
+      <c r="H30" s="39">
+        <v>102.61</v>
+      </c>
+      <c r="I30" s="38">
+        <v>26994017</v>
+      </c>
+      <c r="J30" s="38">
+        <v>13542424</v>
+      </c>
+      <c r="K30" s="38">
+        <v>13451593</v>
+      </c>
+      <c r="L30" s="39">
+        <v>100.68</v>
+      </c>
+      <c r="M30" s="38">
+        <v>1852153</v>
+      </c>
+      <c r="N30" s="38">
+        <v>1066446</v>
+      </c>
+      <c r="O30" s="38">
+        <v>785707</v>
+      </c>
+      <c r="P30" s="39">
+        <v>135.72999999999999</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="38">
+        <v>26383458</v>
+      </c>
+      <c r="C31" s="38">
+        <v>25794161</v>
+      </c>
+      <c r="D31" s="38">
+        <v>589297</v>
+      </c>
+      <c r="E31" s="38">
+        <v>80417528</v>
+      </c>
+      <c r="F31" s="38">
+        <v>40827834</v>
+      </c>
+      <c r="G31" s="38">
+        <v>39589694</v>
+      </c>
+      <c r="H31" s="39">
+        <v>103.13</v>
+      </c>
+      <c r="I31" s="38">
+        <v>76207174</v>
+      </c>
+      <c r="J31" s="38">
+        <v>38380622</v>
+      </c>
+      <c r="K31" s="38">
+        <v>37826552</v>
+      </c>
+      <c r="L31" s="39">
+        <v>101.46</v>
+      </c>
+      <c r="M31" s="38">
+        <v>4210354</v>
+      </c>
+      <c r="N31" s="38">
+        <v>2447212</v>
+      </c>
+      <c r="O31" s="38">
+        <v>1763142</v>
+      </c>
+      <c r="P31" s="39">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="38">
+        <v>10745630</v>
+      </c>
+      <c r="C32" s="38">
+        <v>10558461</v>
+      </c>
+      <c r="D32" s="38">
+        <v>187169</v>
+      </c>
+      <c r="E32" s="38">
+        <v>34748556</v>
+      </c>
+      <c r="F32" s="38">
+        <v>17905471</v>
+      </c>
+      <c r="G32" s="38">
+        <v>16843085</v>
+      </c>
+      <c r="H32" s="39">
+        <v>106.31</v>
+      </c>
+      <c r="I32" s="38">
+        <v>33571308</v>
+      </c>
+      <c r="J32" s="38">
+        <v>17153547</v>
+      </c>
+      <c r="K32" s="38">
+        <v>16417761</v>
+      </c>
+      <c r="L32" s="39">
+        <v>104.48</v>
+      </c>
+      <c r="M32" s="38">
+        <v>1177248</v>
+      </c>
+      <c r="N32" s="38">
+        <v>751924</v>
+      </c>
+      <c r="O32" s="38">
+        <v>425324</v>
+      </c>
+      <c r="P32" s="39">
+        <v>176.79</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="38">
+        <v>12695396</v>
+      </c>
+      <c r="C33" s="38">
+        <v>12339961</v>
+      </c>
+      <c r="D33" s="38">
+        <v>355435</v>
+      </c>
+      <c r="E33" s="38">
+        <v>45966766</v>
+      </c>
+      <c r="F33" s="38">
+        <v>23856696</v>
+      </c>
+      <c r="G33" s="38">
+        <v>22110070</v>
+      </c>
+      <c r="H33" s="39">
+        <v>107.9</v>
+      </c>
+      <c r="I33" s="38">
+        <v>43626674</v>
+      </c>
+      <c r="J33" s="38">
+        <v>22391253</v>
+      </c>
+      <c r="K33" s="38">
+        <v>21235421</v>
+      </c>
+      <c r="L33" s="39">
+        <v>105.44</v>
+      </c>
+      <c r="M33" s="38">
+        <v>2340092</v>
+      </c>
+      <c r="N33" s="38">
+        <v>1465443</v>
+      </c>
+      <c r="O33" s="38">
+        <v>874649</v>
+      </c>
+      <c r="P33" s="39">
+        <v>167.55</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="38">
+        <v>689521</v>
+      </c>
+      <c r="C34" s="38">
+        <v>670838</v>
+      </c>
+      <c r="D34" s="38">
+        <v>18683</v>
+      </c>
+      <c r="E34" s="38">
+        <v>3002165</v>
+      </c>
+      <c r="F34" s="38">
+        <v>1542652</v>
+      </c>
+      <c r="G34" s="38">
+        <v>1459513</v>
+      </c>
+      <c r="H34" s="39">
+        <v>105.7</v>
+      </c>
+      <c r="I34" s="38">
+        <v>2837769</v>
+      </c>
+      <c r="J34" s="38">
+        <v>1429541</v>
+      </c>
+      <c r="K34" s="38">
+        <v>1408228</v>
+      </c>
+      <c r="L34" s="39">
+        <v>101.51</v>
+      </c>
+      <c r="M34" s="38">
+        <v>164396</v>
+      </c>
+      <c r="N34" s="38">
+        <v>113111</v>
+      </c>
+      <c r="O34" s="38">
+        <v>51285</v>
+      </c>
+      <c r="P34" s="39">
+        <v>220.55</v>
+      </c>
+      <c r="Q34" s="39">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="38">
+        <v>11084516</v>
+      </c>
+      <c r="C35" s="38">
+        <v>10718563</v>
+      </c>
+      <c r="D35" s="38">
+        <v>365953</v>
+      </c>
+      <c r="E35" s="38">
+        <v>37327379</v>
+      </c>
+      <c r="F35" s="38">
+        <v>19287575</v>
+      </c>
+      <c r="G35" s="38">
+        <v>18039804</v>
+      </c>
+      <c r="H35" s="39">
+        <v>106.92</v>
+      </c>
+      <c r="I35" s="38">
+        <v>34462115</v>
+      </c>
+      <c r="J35" s="38">
+        <v>17556257</v>
+      </c>
+      <c r="K35" s="38">
+        <v>16905858</v>
+      </c>
+      <c r="L35" s="39">
+        <v>103.85</v>
+      </c>
+      <c r="M35" s="38">
+        <v>2865264</v>
+      </c>
+      <c r="N35" s="38">
+        <v>1731318</v>
+      </c>
+      <c r="O35" s="38">
+        <v>1133946</v>
+      </c>
+      <c r="P35" s="39">
+        <v>152.68</v>
+      </c>
+      <c r="Q35" s="39">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="38">
+        <v>7113833</v>
+      </c>
+      <c r="C36" s="38">
+        <v>6900369</v>
+      </c>
+      <c r="D36" s="38">
+        <v>213464</v>
+      </c>
+      <c r="E36" s="38">
+        <v>25575263</v>
+      </c>
+      <c r="F36" s="38">
+        <v>13064193</v>
+      </c>
+      <c r="G36" s="38">
+        <v>12511070</v>
+      </c>
+      <c r="H36" s="39">
+        <v>104.42</v>
+      </c>
+      <c r="I36" s="38">
+        <v>24052594</v>
+      </c>
+      <c r="J36" s="38">
+        <v>12141360</v>
+      </c>
+      <c r="K36" s="38">
+        <v>11911234</v>
+      </c>
+      <c r="L36" s="39">
+        <v>101.93</v>
+      </c>
+      <c r="M36" s="38">
+        <v>1522669</v>
+      </c>
+      <c r="N36" s="38">
+        <v>922833</v>
+      </c>
+      <c r="O36" s="38">
+        <v>599836</v>
+      </c>
+      <c r="P36" s="39">
+        <v>153.85</v>
+      </c>
+      <c r="Q36" s="39">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="38">
+        <v>1586635</v>
+      </c>
+      <c r="C37" s="38">
+        <v>1529039</v>
+      </c>
+      <c r="D37" s="38">
+        <v>57596</v>
+      </c>
+      <c r="E37" s="38">
+        <v>5626723</v>
+      </c>
+      <c r="F37" s="38">
+        <v>2913793</v>
+      </c>
+      <c r="G37" s="38">
+        <v>2712930</v>
+      </c>
+      <c r="H37" s="39">
+        <v>107.4</v>
+      </c>
+      <c r="I37" s="38">
+        <v>5284525</v>
+      </c>
+      <c r="J37" s="38">
+        <v>2675766</v>
+      </c>
+      <c r="K37" s="38">
+        <v>2608759</v>
+      </c>
+      <c r="L37" s="39">
+        <v>102.57</v>
+      </c>
+      <c r="M37" s="38">
+        <v>342198</v>
+      </c>
+      <c r="N37" s="38">
+        <v>238027</v>
+      </c>
+      <c r="O37" s="38">
+        <v>104171</v>
+      </c>
+      <c r="P37" s="39">
+        <v>228.5</v>
+      </c>
+      <c r="Q37" s="39">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="38">
+        <v>1945064</v>
+      </c>
+      <c r="C38" s="38">
+        <v>1882205</v>
+      </c>
+      <c r="D38" s="38">
+        <v>62859</v>
+      </c>
+      <c r="E38" s="38">
+        <v>6301350</v>
+      </c>
+      <c r="F38" s="38">
+        <v>3227404</v>
+      </c>
+      <c r="G38" s="38">
+        <v>3073946</v>
+      </c>
+      <c r="H38" s="39">
+        <v>104.99</v>
+      </c>
+      <c r="I38" s="38">
+        <v>5970133</v>
+      </c>
+      <c r="J38" s="38">
+        <v>3015722</v>
+      </c>
+      <c r="K38" s="38">
+        <v>2954411</v>
+      </c>
+      <c r="L38" s="39">
+        <v>102.08</v>
+      </c>
+      <c r="M38" s="38">
+        <v>331217</v>
+      </c>
+      <c r="N38" s="38">
+        <v>211682</v>
+      </c>
+      <c r="O38" s="38">
+        <v>119535</v>
+      </c>
+      <c r="P38" s="39">
+        <v>177.09</v>
+      </c>
+      <c r="Q38" s="39">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="41">
+        <v>6902850</v>
+      </c>
+      <c r="C39" s="41">
+        <v>6705607</v>
+      </c>
+      <c r="D39" s="41">
+        <v>197243</v>
+      </c>
+      <c r="E39" s="41">
+        <v>21815815</v>
+      </c>
+      <c r="F39" s="41">
+        <v>11270147</v>
+      </c>
+      <c r="G39" s="41">
+        <v>10545668</v>
+      </c>
+      <c r="H39" s="42">
+        <v>106.87</v>
+      </c>
+      <c r="I39" s="41">
+        <v>20802249</v>
+      </c>
+      <c r="J39" s="41">
+        <v>10620499</v>
+      </c>
+      <c r="K39" s="41">
+        <v>10181750</v>
+      </c>
+      <c r="L39" s="42">
+        <v>104.31</v>
+      </c>
+      <c r="M39" s="41">
+        <v>1013566</v>
+      </c>
+      <c r="N39" s="41">
+        <v>649648</v>
+      </c>
+      <c r="O39" s="41">
+        <v>363918</v>
+      </c>
+      <c r="P39" s="42">
+        <v>178.51</v>
+      </c>
+      <c r="Q39" s="42">
+        <v>3.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/simple/TestExcelFile.xlsx
+++ b/src/test/resources/simple/TestExcelFile.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\excel2javaBean\src\test\resources\simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9DD81-CA51-4A9B-B648-456664574A78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9D8961-5CDC-4A54-B745-890C93057327}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="2" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="3" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="First" sheetId="1" r:id="rId1"/>
     <sheet name="Second" sheetId="2" r:id="rId2"/>
     <sheet name="Third" sheetId="3" r:id="rId3"/>
-    <sheet name="Accumulator" sheetId="4" r:id="rId4"/>
-    <sheet name="Accumulator2" sheetId="5" r:id="rId5"/>
-    <sheet name="Accumulator3" sheetId="6" r:id="rId6"/>
+    <sheet name="常用数据类型转换测试" sheetId="7" r:id="rId4"/>
+    <sheet name="Accumulator" sheetId="4" r:id="rId5"/>
+    <sheet name="Accumulator2" sheetId="5" r:id="rId6"/>
+    <sheet name="Accumulator3" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="150">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1127,6 +1128,189 @@
       <t xml:space="preserve"> http://www.stats.gov.cn/</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigInteger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigIDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double[]</t>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORMULA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMERIC(Integer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMERIC(Float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMERIC(Date)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.23456789012345678901234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789012345678901234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/03/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1482,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1504,79 +1688,13 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,8 +1730,83 @@
     <xf numFmtId="177" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1946,41 +2139,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="23"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="24">
         <v>43466</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -2124,29 +2317,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="23"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -2381,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80D2D90-71DB-4C8F-A95A-3CA0B5C00024}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2391,1906 +2584,1900 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="19" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="22" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="32" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="13">
         <v>417722698</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="13">
         <v>401934196</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="13">
         <v>15788502</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="13">
         <v>1332810869</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="13">
         <v>682329104</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="13">
         <v>650481765</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="14">
         <v>104.9</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="13">
         <v>1239981250</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="13">
         <v>627410399</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="13">
         <v>612570851</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="14">
         <v>102.42</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="13">
         <v>92829619</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="13">
         <v>54918705</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="13">
         <v>37910914</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="14">
         <v>144.86000000000001</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="14">
         <v>3.09</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="16">
         <v>7355291</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="16">
         <v>6680552</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="16">
         <v>674739</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="16">
         <v>19612368</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="16">
         <v>10126430</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="16">
         <v>9485938</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="17">
         <v>106.75</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="16">
         <v>16389723</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="16">
         <v>8173161</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="16">
         <v>8216562</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="17">
         <v>99.47</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="16">
         <v>3222645</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="16">
         <v>1953269</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="16">
         <v>1269376</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="17">
         <v>153.88</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="17">
         <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="16">
         <v>3963604</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="16">
         <v>3661992</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="16">
         <v>301612</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="16">
         <v>12938693</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="16">
         <v>6907091</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="16">
         <v>6031602</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="17">
         <v>114.52</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="16">
         <v>10262186</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="16">
         <v>5129604</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="16">
         <v>5132582</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="17">
         <v>99.94</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="16">
         <v>2676507</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="16">
         <v>1777487</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="16">
         <v>899020</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="17">
         <v>197.71</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="17">
         <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="16">
         <v>20813492</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="16">
         <v>20395116</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="16">
         <v>418376</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="16">
         <v>71854210</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="16">
         <v>36430286</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="16">
         <v>35423924</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="17">
         <v>102.84</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="16">
         <v>68538709</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="16">
         <v>34552649</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="16">
         <v>33986060</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="17">
         <v>101.67</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="16">
         <v>3315501</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="16">
         <v>1877637</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="16">
         <v>1437864</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="17">
         <v>130.59</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="17">
         <v>3.36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="16">
         <v>10654162</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="16">
         <v>10330207</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="16">
         <v>323955</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="16">
         <v>35712101</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="16">
         <v>18338760</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="16">
         <v>17373341</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="17">
         <v>105.56</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="16">
         <v>33484131</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="16">
         <v>16988087</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="16">
         <v>16496044</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="17">
         <v>102.98</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="16">
         <v>2227970</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="16">
         <v>1350673</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="16">
         <v>877297</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="17">
         <v>153.96</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="17">
         <v>3.24</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="16">
         <v>8470472</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="16">
         <v>8205498</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="16">
         <v>264974</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="16">
         <v>24706291</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="16">
         <v>12838243</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="16">
         <v>11868048</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="17">
         <v>108.17</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="16">
         <v>23071690</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="16">
         <v>11725291</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="16">
         <v>11346399</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="17">
         <v>103.34</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="16">
         <v>1634601</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="16">
         <v>1112952</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="16">
         <v>521649</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="17">
         <v>213.35</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="17">
         <v>2.81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="16">
         <v>15334912</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="16">
         <v>14994046</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="16">
         <v>340866</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="16">
         <v>43746323</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="16">
         <v>22147745</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="16">
         <v>21598578</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="17">
         <v>102.54</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="16">
         <v>41755874</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="16">
         <v>20956756</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="16">
         <v>20799118</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="17">
         <v>100.76</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="16">
         <v>1990449</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="16">
         <v>1190989</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="16">
         <v>799460</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="17">
         <v>148.97</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="17">
         <v>2.78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="16">
         <v>9162183</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="16">
         <v>8998492</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="16">
         <v>163691</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="16">
         <v>27452815</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="16">
         <v>13907218</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="16">
         <v>13545597</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="17">
         <v>102.67</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="16">
         <v>26457769</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="16">
         <v>13358390</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="16">
         <v>13099379</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="17">
         <v>101.98</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="16">
         <v>995046</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="16">
         <v>548828</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="16">
         <v>446218</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="17">
         <v>123</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="17">
         <v>2.94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="16">
         <v>13192935</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="16">
         <v>13000088</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="16">
         <v>192847</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="16">
         <v>38313991</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="16">
         <v>19426106</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="16">
         <v>18887885</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="17">
         <v>102.85</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="16">
         <v>36884039</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="16">
         <v>18603181</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="16">
         <v>18280858</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="17">
         <v>101.76</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="16">
         <v>1429952</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="16">
         <v>822925</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="16">
         <v>607027</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="17">
         <v>135.57</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="17">
         <v>2.84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="16">
         <v>8893483</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="16">
         <v>8253257</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="16">
         <v>640226</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="16">
         <v>23019196</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="16">
         <v>11854916</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="16">
         <v>11164280</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="17">
         <v>106.19</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="16">
         <v>20593430</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="16">
         <v>10318168</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="16">
         <v>10275262</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="17">
         <v>100.42</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="16">
         <v>2425766</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="16">
         <v>1536748</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="16">
         <v>889018</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="17">
         <v>172.86</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="17">
         <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="16">
         <v>25635291</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="16">
         <v>24381782</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="16">
         <v>1253509</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="16">
         <v>78660941</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="16">
         <v>39626707</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="16">
         <v>39034234</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="17">
         <v>101.52</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="16">
         <v>71685839</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="16">
         <v>35542124</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="16">
         <v>36143715</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="17">
         <v>98.34</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="16">
         <v>6975102</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="16">
         <v>4084583</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="16">
         <v>2890519</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="17">
         <v>141.31</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="17">
         <v>2.94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="16">
         <v>20060115</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="16">
         <v>18854021</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="16">
         <v>1206094</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="16">
         <v>54426891</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="16">
         <v>27965641</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="16">
         <v>26461250</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="17">
         <v>105.69</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="16">
         <v>49425543</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="16">
         <v>25037320</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="16">
         <v>24388223</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="17">
         <v>102.66</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="16">
         <v>5001348</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="16">
         <v>2928321</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="16">
         <v>2073027</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19" s="17">
         <v>141.26</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="17">
         <v>2.62</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="16">
         <v>19322432</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="16">
         <v>18861956</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="16">
         <v>460476</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="16">
         <v>59500468</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="16">
         <v>30245513</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="16">
         <v>29254955</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="17">
         <v>103.39</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="16">
         <v>56493891</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="16">
         <v>28462853</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="16">
         <v>28031038</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="17">
         <v>101.54</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="16">
         <v>3006577</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="16">
         <v>1782660</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="16">
         <v>1223917</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="17">
         <v>145.65</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="16">
         <v>11971873</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="16">
         <v>11206317</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="16">
         <v>765556</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="16">
         <v>36894217</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="16">
         <v>18981054</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="16">
         <v>17913163</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="17">
         <v>105.96</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="16">
         <v>33397663</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="16">
         <v>16901083</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="16">
         <v>16496580</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="17">
         <v>102.45</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="16">
         <v>3496554</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="16">
         <v>2079971</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="16">
         <v>1416583</v>
       </c>
-      <c r="P21" s="39">
+      <c r="P21" s="17">
         <v>146.83000000000001</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="17">
         <v>2.98</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="16">
         <v>11847841</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="16">
         <v>11542527</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="16">
         <v>305314</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="16">
         <v>44567797</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="16">
         <v>23003521</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="16">
         <v>21564276</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="17">
         <v>106.67</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="16">
         <v>42181417</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="16">
         <v>21600070</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="16">
         <v>20581347</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="17">
         <v>104.95</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="16">
         <v>2386380</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="16">
         <v>1403451</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="16">
         <v>982929</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="17">
         <v>142.78</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="17">
         <v>3.65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="16">
         <v>30794664</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="16">
         <v>30105454</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="16">
         <v>689210</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="16">
         <v>95792719</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="16">
         <v>48446944</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="16">
         <v>47345775</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="17">
         <v>102.33</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="16">
         <v>89855501</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="16">
         <v>45023357</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="16">
         <v>44832144</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="17">
         <v>100.43</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="16">
         <v>5937218</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="16">
         <v>3423587</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="16">
         <v>2513631</v>
       </c>
-      <c r="P23" s="39">
+      <c r="P23" s="17">
         <v>136.19999999999999</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="17">
         <v>2.98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="16">
         <v>26404973</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="16">
         <v>25928729</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="16">
         <v>476244</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="16">
         <v>94029939</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="16">
         <v>47493063</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="16">
         <v>46536876</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="17">
         <v>102.05</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="16">
         <v>90028072</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="16">
         <v>45262137</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="16">
         <v>44765935</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="17">
         <v>101.11</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="16">
         <v>4001867</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="16">
         <v>2230926</v>
       </c>
-      <c r="O24" s="38">
+      <c r="O24" s="16">
         <v>1770941</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P24" s="17">
         <v>125.97</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="17">
         <v>3.47</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="16">
         <v>17253385</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="16">
         <v>16695121</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="16">
         <v>558264</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="16">
         <v>57237727</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="16">
         <v>29391247</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="16">
         <v>27846480</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="17">
         <v>105.55</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="16">
         <v>52745625</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="16">
         <v>26826301</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="16">
         <v>25919324</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="17">
         <v>103.5</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="16">
         <v>4492102</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="16">
         <v>2564946</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="16">
         <v>1927156</v>
       </c>
-      <c r="P25" s="39">
+      <c r="P25" s="17">
         <v>133.09</v>
       </c>
-      <c r="Q25" s="39">
+      <c r="Q25" s="17">
         <v>3.16</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="16">
         <v>19029894</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="16">
         <v>18625710</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="16">
         <v>404184</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="16">
         <v>65700762</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="16">
         <v>33776459</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="16">
         <v>31924303</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="17">
         <v>105.8</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="16">
         <v>61911446</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="16">
         <v>31611459</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="16">
         <v>30299987</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="17">
         <v>104.33</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="16">
         <v>3789316</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="16">
         <v>2165000</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="16">
         <v>1624316</v>
       </c>
-      <c r="P26" s="39">
+      <c r="P26" s="17">
         <v>133.29</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="17">
         <v>3.32</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="16">
         <v>32222752</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="16">
         <v>28630609</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="16">
         <v>3592143</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="16">
         <v>104320459</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="16">
         <v>54400538</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="16">
         <v>49919921</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="17">
         <v>108.98</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="16">
         <v>88979305</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="16">
         <v>45465958</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="16">
         <v>43513347</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="17">
         <v>104.49</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="16">
         <v>15341154</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="16">
         <v>8934580</v>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="16">
         <v>6406574</v>
       </c>
-      <c r="P27" s="39">
+      <c r="P27" s="17">
         <v>139.46</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="17">
         <v>3.11</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="16">
         <v>13467663</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="16">
         <v>13151404</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="16">
         <v>316259</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="16">
         <v>46023761</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="16">
         <v>23924704</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="16">
         <v>22099057</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="17">
         <v>108.26</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="16">
         <v>43970320</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="16">
         <v>22733969</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="16">
         <v>21236351</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="17">
         <v>107.05</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="16">
         <v>2053441</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="16">
         <v>1190735</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="16">
         <v>862706</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28" s="17">
         <v>138.02000000000001</v>
       </c>
-      <c r="Q28" s="39">
+      <c r="Q28" s="17">
         <v>3.34</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="16">
         <v>2451819</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="16">
         <v>2331149</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="16">
         <v>120670</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="16">
         <v>8671485</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="16">
         <v>4592283</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="16">
         <v>4079202</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="17">
         <v>112.58</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="16">
         <v>8060519</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="16">
         <v>4231490</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="16">
         <v>3829029</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="17">
         <v>110.51</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="16">
         <v>610966</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="16">
         <v>360793</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="16">
         <v>250173</v>
       </c>
-      <c r="P29" s="39">
+      <c r="P29" s="17">
         <v>144.22</v>
       </c>
-      <c r="Q29" s="39">
+      <c r="Q29" s="17">
         <v>3.46</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="16">
         <v>10272559</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="16">
         <v>10000965</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="16">
         <v>271594</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="16">
         <v>28846170</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="16">
         <v>14608870</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="16">
         <v>14237300</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="17">
         <v>102.61</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="16">
         <v>26994017</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="16">
         <v>13542424</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="16">
         <v>13451593</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="17">
         <v>100.68</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="16">
         <v>1852153</v>
       </c>
-      <c r="N30" s="38">
+      <c r="N30" s="16">
         <v>1066446</v>
       </c>
-      <c r="O30" s="38">
+      <c r="O30" s="16">
         <v>785707</v>
       </c>
-      <c r="P30" s="39">
+      <c r="P30" s="17">
         <v>135.72999999999999</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="17">
         <v>2.7</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="16">
         <v>26383458</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="16">
         <v>25794161</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="16">
         <v>589297</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="16">
         <v>80417528</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="16">
         <v>40827834</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="16">
         <v>39589694</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="17">
         <v>103.13</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="16">
         <v>76207174</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="16">
         <v>38380622</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="16">
         <v>37826552</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="17">
         <v>101.46</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31" s="16">
         <v>4210354</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31" s="16">
         <v>2447212</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31" s="16">
         <v>1763142</v>
       </c>
-      <c r="P31" s="39">
+      <c r="P31" s="17">
         <v>138.80000000000001</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="Q31" s="17">
         <v>2.95</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="16">
         <v>10745630</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="16">
         <v>10558461</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="16">
         <v>187169</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="16">
         <v>34748556</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="16">
         <v>17905471</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="16">
         <v>16843085</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="17">
         <v>106.31</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="16">
         <v>33571308</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="16">
         <v>17153547</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="16">
         <v>16417761</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="17">
         <v>104.48</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="16">
         <v>1177248</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32" s="16">
         <v>751924</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32" s="16">
         <v>425324</v>
       </c>
-      <c r="P32" s="39">
+      <c r="P32" s="17">
         <v>176.79</v>
       </c>
-      <c r="Q32" s="39">
+      <c r="Q32" s="17">
         <v>3.18</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="16">
         <v>12695396</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="16">
         <v>12339961</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="16">
         <v>355435</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="16">
         <v>45966766</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="16">
         <v>23856696</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="16">
         <v>22110070</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="17">
         <v>107.9</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="16">
         <v>43626674</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J33" s="16">
         <v>22391253</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="16">
         <v>21235421</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="17">
         <v>105.44</v>
       </c>
-      <c r="M33" s="38">
+      <c r="M33" s="16">
         <v>2340092</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33" s="16">
         <v>1465443</v>
       </c>
-      <c r="O33" s="38">
+      <c r="O33" s="16">
         <v>874649</v>
       </c>
-      <c r="P33" s="39">
+      <c r="P33" s="17">
         <v>167.55</v>
       </c>
-      <c r="Q33" s="39">
+      <c r="Q33" s="17">
         <v>3.54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="16">
         <v>689521</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="16">
         <v>670838</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="16">
         <v>18683</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="16">
         <v>3002165</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="16">
         <v>1542652</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="16">
         <v>1459513</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="17">
         <v>105.7</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="16">
         <v>2837769</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="16">
         <v>1429541</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="16">
         <v>1408228</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="17">
         <v>101.51</v>
       </c>
-      <c r="M34" s="38">
+      <c r="M34" s="16">
         <v>164396</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="16">
         <v>113111</v>
       </c>
-      <c r="O34" s="38">
+      <c r="O34" s="16">
         <v>51285</v>
       </c>
-      <c r="P34" s="39">
+      <c r="P34" s="17">
         <v>220.55</v>
       </c>
-      <c r="Q34" s="39">
+      <c r="Q34" s="17">
         <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="16">
         <v>11084516</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="16">
         <v>10718563</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="16">
         <v>365953</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="16">
         <v>37327379</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="16">
         <v>19287575</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="16">
         <v>18039804</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="17">
         <v>106.92</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="16">
         <v>34462115</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="16">
         <v>17556257</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="16">
         <v>16905858</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="17">
         <v>103.85</v>
       </c>
-      <c r="M35" s="38">
+      <c r="M35" s="16">
         <v>2865264</v>
       </c>
-      <c r="N35" s="38">
+      <c r="N35" s="16">
         <v>1731318</v>
       </c>
-      <c r="O35" s="38">
+      <c r="O35" s="16">
         <v>1133946</v>
       </c>
-      <c r="P35" s="39">
+      <c r="P35" s="17">
         <v>152.68</v>
       </c>
-      <c r="Q35" s="39">
+      <c r="Q35" s="17">
         <v>3.22</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="16">
         <v>7113833</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="16">
         <v>6900369</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="16">
         <v>213464</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="16">
         <v>25575263</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="16">
         <v>13064193</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="16">
         <v>12511070</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="17">
         <v>104.42</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="16">
         <v>24052594</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36" s="16">
         <v>12141360</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="16">
         <v>11911234</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="17">
         <v>101.93</v>
       </c>
-      <c r="M36" s="38">
+      <c r="M36" s="16">
         <v>1522669</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="16">
         <v>922833</v>
       </c>
-      <c r="O36" s="38">
+      <c r="O36" s="16">
         <v>599836</v>
       </c>
-      <c r="P36" s="39">
+      <c r="P36" s="17">
         <v>153.85</v>
       </c>
-      <c r="Q36" s="39">
+      <c r="Q36" s="17">
         <v>3.49</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="16">
         <v>1586635</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="16">
         <v>1529039</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="16">
         <v>57596</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="16">
         <v>5626723</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="16">
         <v>2913793</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="16">
         <v>2712930</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="17">
         <v>107.4</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="16">
         <v>5284525</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37" s="16">
         <v>2675766</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="16">
         <v>2608759</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="17">
         <v>102.57</v>
       </c>
-      <c r="M37" s="38">
+      <c r="M37" s="16">
         <v>342198</v>
       </c>
-      <c r="N37" s="38">
+      <c r="N37" s="16">
         <v>238027</v>
       </c>
-      <c r="O37" s="38">
+      <c r="O37" s="16">
         <v>104171</v>
       </c>
-      <c r="P37" s="39">
+      <c r="P37" s="17">
         <v>228.5</v>
       </c>
-      <c r="Q37" s="39">
+      <c r="Q37" s="17">
         <v>3.46</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="16">
         <v>1945064</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="16">
         <v>1882205</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="16">
         <v>62859</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="16">
         <v>6301350</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="16">
         <v>3227404</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="16">
         <v>3073946</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="17">
         <v>104.99</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="16">
         <v>5970133</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38" s="16">
         <v>3015722</v>
       </c>
-      <c r="K38" s="38">
+      <c r="K38" s="16">
         <v>2954411</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="17">
         <v>102.08</v>
       </c>
-      <c r="M38" s="38">
+      <c r="M38" s="16">
         <v>331217</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="16">
         <v>211682</v>
       </c>
-      <c r="O38" s="38">
+      <c r="O38" s="16">
         <v>119535</v>
       </c>
-      <c r="P38" s="39">
+      <c r="P38" s="17">
         <v>177.09</v>
       </c>
-      <c r="Q38" s="39">
+      <c r="Q38" s="17">
         <v>3.17</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="19">
         <v>6902850</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="19">
         <v>6705607</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="19">
         <v>197243</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="19">
         <v>21815815</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="19">
         <v>11270147</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="19">
         <v>10545668</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="20">
         <v>106.87</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="19">
         <v>20802249</v>
       </c>
-      <c r="J39" s="41">
+      <c r="J39" s="19">
         <v>10620499</v>
       </c>
-      <c r="K39" s="41">
+      <c r="K39" s="19">
         <v>10181750</v>
       </c>
-      <c r="L39" s="42">
+      <c r="L39" s="20">
         <v>104.31</v>
       </c>
-      <c r="M39" s="41">
+      <c r="M39" s="19">
         <v>1013566</v>
       </c>
-      <c r="N39" s="41">
+      <c r="N39" s="19">
         <v>649648</v>
       </c>
-      <c r="O39" s="41">
+      <c r="O39" s="19">
         <v>363918</v>
       </c>
-      <c r="P39" s="42">
+      <c r="P39" s="20">
         <v>178.51</v>
       </c>
-      <c r="Q39" s="42">
+      <c r="Q39" s="20">
         <v>3.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A1:Q1"/>
@@ -4303,6 +4490,12 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4311,6 +4504,920 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D164F5-D080-4E05-8F08-09F8FB0206EA}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="9" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>1994</v>
+      </c>
+      <c r="C2">
+        <v>3.14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43535</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="b">
+        <f>ISEVEN(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="e">
+        <f>F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3">
+        <v>1995</v>
+      </c>
+      <c r="C3">
+        <v>3.15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43536</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3">
+        <f>B3</f>
+        <v>1995</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <v>1996</v>
+      </c>
+      <c r="C4">
+        <v>3.16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43537</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="0">B4</f>
+        <v>1996</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" ref="I4:I32" si="1">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>1997</v>
+      </c>
+      <c r="C5">
+        <v>3.17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43538</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" ref="I5:I32" si="2">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6">
+        <v>1998</v>
+      </c>
+      <c r="C6">
+        <v>3.18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43539</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="e">
+        <f t="shared" ref="I6:I32" si="3">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>1999</v>
+      </c>
+      <c r="C7">
+        <v>3.19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43540</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="e">
+        <f t="shared" ref="I7:I32" si="4">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>3.2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43541</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="e">
+        <f t="shared" ref="I8:I32" si="5">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <v>2001</v>
+      </c>
+      <c r="C9">
+        <v>3.21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43542</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" ref="I9:I32" si="6">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <v>2002</v>
+      </c>
+      <c r="C10">
+        <v>3.22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43543</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="b">
+        <f>ISBLANK(E10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="e">
+        <f t="shared" ref="I10:I32" si="7">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11">
+        <v>2003</v>
+      </c>
+      <c r="C11">
+        <v>3.23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43544</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11">
+        <f>C11</f>
+        <v>3.23</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" ref="I11:I32" si="8">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12">
+        <v>2004</v>
+      </c>
+      <c r="C12">
+        <v>3.24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43545</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F19" si="9">C12</f>
+        <v>3.24</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" ref="I12:I32" si="10">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13">
+        <v>2005</v>
+      </c>
+      <c r="C13">
+        <v>3.25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43546</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="9"/>
+        <v>3.25</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" ref="I13:I32" si="11">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14">
+        <v>2006</v>
+      </c>
+      <c r="C14">
+        <v>3.26</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43547</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>3.26</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="e">
+        <f t="shared" ref="I14:I32" si="12">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>2007</v>
+      </c>
+      <c r="C15">
+        <v>3.27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43548</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="9"/>
+        <v>3.27</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" ref="I15:I32" si="13">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16">
+        <v>2008</v>
+      </c>
+      <c r="C16">
+        <v>3.28</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43549</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="44" t="str">
+        <f>E16</f>
+        <v>123456789012345678901234567890</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="e">
+        <f t="shared" ref="I16:I32" si="14">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <v>2009</v>
+      </c>
+      <c r="C17">
+        <v>3.29</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43550</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="9"/>
+        <v>3.29</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" ref="I17:I32" si="15">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18">
+        <v>2010</v>
+      </c>
+      <c r="C18">
+        <v>3.3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43551</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="9"/>
+        <v>3.3</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" ref="I18:I32" si="16">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>2011</v>
+      </c>
+      <c r="C19">
+        <v>3.31</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43552</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="44" t="str">
+        <f>E19</f>
+        <v>1.23456789012345678901234567890</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" ref="I19:I32" si="17">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20">
+        <v>2012</v>
+      </c>
+      <c r="C20">
+        <v>3.32</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43553</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="str">
+        <f>E20</f>
+        <v>Void</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" ref="I20:I32" si="18">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21">
+        <v>2013</v>
+      </c>
+      <c r="C21">
+        <v>3.33</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43554</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21">
+        <f>C21</f>
+        <v>3.33</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" ref="I21:I32" si="19">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22">
+        <v>2014</v>
+      </c>
+      <c r="C22">
+        <v>3.34</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="46">
+        <f ca="1">NOW()</f>
+        <v>43535.889379976848</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" ref="I22:I32" si="20">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23">
+        <v>2015</v>
+      </c>
+      <c r="C23">
+        <v>3.35</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43556</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="46">
+        <f ca="1">NOW()</f>
+        <v>43535.889379976848</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" ref="I23:I32" si="21">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24">
+        <v>2016</v>
+      </c>
+      <c r="C24">
+        <v>3.3599999999999901</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43557</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="str">
+        <f>E24</f>
+        <v>String</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" ref="I24:I32" si="22">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25">
+        <v>2017</v>
+      </c>
+      <c r="C25">
+        <v>3.37</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43558</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" ref="F25:F32" si="23">E25</f>
+        <v>boolean[]</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" ref="I25:I32" si="24">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>3.38</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43559</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="23"/>
+        <v>byte[]</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="e">
+        <f t="shared" ref="I26:I32" si="25">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="C27">
+        <v>3.39</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43560</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="23"/>
+        <v>short[]</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="e">
+        <f t="shared" ref="I27:I32" si="26">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28">
+        <v>3.3999999999999901</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43561</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="23"/>
+        <v>char[]</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="e">
+        <f t="shared" ref="I28:I32" si="27">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29">
+        <v>2021</v>
+      </c>
+      <c r="C29">
+        <v>3.4099999999999899</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43562</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="23"/>
+        <v>int[]</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="e">
+        <f t="shared" ref="I29:I32" si="28">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30">
+        <v>2022</v>
+      </c>
+      <c r="C30">
+        <v>3.4199999999999902</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43563</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="23"/>
+        <v>long[]</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="e">
+        <f t="shared" ref="I30:I32" si="29">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31">
+        <v>2023</v>
+      </c>
+      <c r="C31">
+        <v>3.4299999999999899</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43564</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="23"/>
+        <v>float[]</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" ref="I31:I32" si="30">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32">
+        <v>2024</v>
+      </c>
+      <c r="C32">
+        <v>3.4399999999999902</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43565</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="23"/>
+        <v>double[]</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="e">
+        <f t="shared" ref="I32" si="31">F.INV</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA4B62-E84A-47FF-8A9A-20F8BE45E8B5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4323,7 +5430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4DC576-F826-48E6-8C59-05641BF4AB59}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4336,7 +5443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AD97FF-A559-4B07-BF93-BECA940236A7}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/simple/TestExcelFile.xlsx
+++ b/src/test/resources/simple/TestExcelFile.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\excel2javaBean\src\test\resources\simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9D8961-5CDC-4A54-B745-890C93057327}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C60338F-4A1B-4F35-AF71-C08B7F5378C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="3" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="4" xr2:uid="{D9C3BC2A-F4FE-47E3-BC5B-A5BB527E2A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="First" sheetId="1" r:id="rId1"/>
     <sheet name="Second" sheetId="2" r:id="rId2"/>
     <sheet name="Third" sheetId="3" r:id="rId3"/>
     <sheet name="常用数据类型转换测试" sheetId="7" r:id="rId4"/>
-    <sheet name="Accumulator" sheetId="4" r:id="rId5"/>
-    <sheet name="Accumulator2" sheetId="5" r:id="rId6"/>
-    <sheet name="Accumulator3" sheetId="6" r:id="rId7"/>
+    <sheet name="常用数据类型转换测试2" sheetId="8" r:id="rId5"/>
+    <sheet name="Accumulator" sheetId="4" r:id="rId6"/>
+    <sheet name="Accumulator2" sheetId="5" r:id="rId7"/>
+    <sheet name="Accumulator3" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1730,6 +1731,15 @@
     <xf numFmtId="177" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1744,6 +1754,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1781,32 +1806,8 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2139,41 +2140,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="26"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="27">
         <v>43466</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -2317,29 +2318,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="26"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -2584,191 +2585,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="41" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="41" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43" t="s">
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="38" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="29" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="29" t="s">
         <v>66</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="29" t="s">
         <v>66</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="32"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="10" t="s">
         <v>69</v>
       </c>
@@ -4474,12 +4475,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="B3:Q3"/>
@@ -4496,6 +4491,12 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4507,7 +4508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D164F5-D080-4E05-8F08-09F8FB0206EA}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4615,14 +4616,14 @@
         <v>106</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F10" si="0">B4</f>
+        <f t="shared" ref="F4:F9" si="0">B4</f>
         <v>1996</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="e">
-        <f t="shared" ref="I4:I32" si="1">F.INV</f>
+        <f t="shared" ref="I4" si="1">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4650,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="e">
-        <f t="shared" ref="I5:I32" si="2">1/0</f>
+        <f t="shared" ref="I5" si="2">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4678,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="e">
-        <f t="shared" ref="I6:I32" si="3">F.INV</f>
+        <f t="shared" ref="I6" si="3">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4695,7 +4696,7 @@
       <c r="D7" s="2">
         <v>43540</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="21" t="s">
         <v>148</v>
       </c>
       <c r="F7">
@@ -4706,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="e">
-        <f t="shared" ref="I7:I32" si="4">1/0</f>
+        <f t="shared" ref="I7" si="4">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4734,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="e">
-        <f t="shared" ref="I8:I32" si="5">F.INV</f>
+        <f t="shared" ref="I8" si="5">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4762,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="e">
-        <f t="shared" ref="I9:I32" si="6">1/0</f>
+        <f t="shared" ref="I9" si="6">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4790,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="e">
-        <f t="shared" ref="I10:I32" si="7">F.INV</f>
+        <f t="shared" ref="I10" si="7">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4818,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="e">
-        <f t="shared" ref="I11:I32" si="8">1/0</f>
+        <f t="shared" ref="I11" si="8">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4839,14 +4840,14 @@
         <v>114</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F19" si="9">C12</f>
+        <f t="shared" ref="F12:F18" si="9">C12</f>
         <v>3.24</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="e">
-        <f t="shared" ref="I12:I32" si="10">F.INV</f>
+        <f t="shared" ref="I12" si="10">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4874,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="e">
-        <f t="shared" ref="I13:I32" si="11">1/0</f>
+        <f t="shared" ref="I13" si="11">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4902,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="e">
-        <f t="shared" ref="I14:I32" si="12">F.INV</f>
+        <f t="shared" ref="I14" si="12">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4930,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" ref="I15:I32" si="13">1/0</f>
+        <f t="shared" ref="I15" si="13">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4947,10 +4948,10 @@
       <c r="D16" s="2">
         <v>43549</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="44" t="str">
+      <c r="F16" s="21" t="str">
         <f>E16</f>
         <v>123456789012345678901234567890</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="e">
-        <f t="shared" ref="I16:I32" si="14">F.INV</f>
+        <f t="shared" ref="I16" si="14">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="e">
-        <f t="shared" ref="I17:I32" si="15">1/0</f>
+        <f t="shared" ref="I17" si="15">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5003,7 +5004,7 @@
       <c r="D18" s="2">
         <v>43551</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="21" t="s">
         <v>149</v>
       </c>
       <c r="F18">
@@ -5014,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="e">
-        <f t="shared" ref="I18:I32" si="16">F.INV</f>
+        <f t="shared" ref="I18" si="16">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5031,10 +5032,10 @@
       <c r="D19" s="2">
         <v>43552</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="44" t="str">
+      <c r="F19" s="21" t="str">
         <f>E19</f>
         <v>1.23456789012345678901234567890</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="e">
-        <f t="shared" ref="I19:I32" si="17">1/0</f>
+        <f t="shared" ref="I19" si="17">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5070,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="e">
-        <f t="shared" ref="I20:I32" si="18">F.INV</f>
+        <f t="shared" ref="I20" si="18">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5098,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="e">
-        <f t="shared" ref="I21:I32" si="19">1/0</f>
+        <f t="shared" ref="I21" si="19">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5115,18 +5116,18 @@
       <c r="D22" s="2">
         <v>43555</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="23">
         <f ca="1">NOW()</f>
-        <v>43535.889379976848</v>
+        <v>43563.893491550923</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="e">
-        <f t="shared" ref="I22:I32" si="20">F.INV</f>
+        <f t="shared" ref="I22" si="20">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5143,18 +5144,18 @@
       <c r="D23" s="2">
         <v>43556</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="23">
         <f ca="1">NOW()</f>
-        <v>43535.889379976848</v>
+        <v>43563.893491550923</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="e">
-        <f t="shared" ref="I23:I32" si="21">1/0</f>
+        <f t="shared" ref="I23" si="21">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5182,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="e">
-        <f t="shared" ref="I24:I32" si="22">F.INV</f>
+        <f t="shared" ref="I24" si="22">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5210,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="e">
-        <f t="shared" ref="I25:I32" si="24">1/0</f>
+        <f t="shared" ref="I25" si="24">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5238,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="e">
-        <f t="shared" ref="I26:I32" si="25">F.INV</f>
+        <f t="shared" ref="I26" si="25">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5266,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="e">
-        <f t="shared" ref="I27:I32" si="26">1/0</f>
+        <f t="shared" ref="I27" si="26">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5294,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="e">
-        <f t="shared" ref="I28:I32" si="27">F.INV</f>
+        <f t="shared" ref="I28" si="27">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5322,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="e">
-        <f t="shared" ref="I29:I32" si="28">1/0</f>
+        <f t="shared" ref="I29" si="28">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5350,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="e">
-        <f t="shared" ref="I30:I32" si="29">F.INV</f>
+        <f t="shared" ref="I30" si="29">F.INV</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5378,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="e">
-        <f t="shared" ref="I31:I32" si="30">1/0</f>
+        <f t="shared" ref="I31" si="30">1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5418,6 +5419,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59486C5-A214-4EE8-8A12-525FC4B10BD5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA4B62-E84A-47FF-8A9A-20F8BE45E8B5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5430,7 +5444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4DC576-F826-48E6-8C59-05641BF4AB59}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5443,7 +5457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AD97FF-A559-4B07-BF93-BECA940236A7}">
   <dimension ref="A1"/>
   <sheetViews>
